--- a/artfynd/A 66026-2019.xlsx
+++ b/artfynd/A 66026-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84424605</v>
+        <v>84424593</v>
       </c>
       <c r="B2" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>512641.8922189531</v>
+        <v>512645.2629130378</v>
       </c>
       <c r="R2" t="n">
-        <v>7207354.215751199</v>
+        <v>7207458.776002469</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84424623</v>
+        <v>84424584</v>
       </c>
       <c r="B3" t="n">
-        <v>76863</v>
+        <v>89356</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>512747.5111053474</v>
+        <v>512633.3779725762</v>
       </c>
       <c r="R3" t="n">
-        <v>7207331.385334576</v>
+        <v>7207463.38144253</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84424593</v>
+        <v>84424594</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>512645.2629130378</v>
+        <v>512718.942619767</v>
       </c>
       <c r="R4" t="n">
-        <v>7207458.776002469</v>
+        <v>7207471.78695366</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84424584</v>
+        <v>84424618</v>
       </c>
       <c r="B5" t="n">
-        <v>89356</v>
+        <v>73698</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>1467</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>512633.3779725762</v>
+        <v>512547.791487073</v>
       </c>
       <c r="R5" t="n">
-        <v>7207463.38144253</v>
+        <v>7207460.057342996</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84424648</v>
+        <v>84424633</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>512717.0299179957</v>
+        <v>512548.2277101443</v>
       </c>
       <c r="R6" t="n">
-        <v>7207324.059550932</v>
+        <v>7207457.096389809</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84424601</v>
+        <v>84424643</v>
       </c>
       <c r="B7" t="n">
-        <v>78570</v>
+        <v>89406</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>512713.0625710585</v>
+        <v>512546.943971829</v>
       </c>
       <c r="R7" t="n">
-        <v>7207360.020776609</v>
+        <v>7207460.05377739</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84424628</v>
+        <v>84424605</v>
       </c>
       <c r="B8" t="n">
-        <v>77588</v>
+        <v>78570</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>512732.9834620979</v>
+        <v>512641.8922189531</v>
       </c>
       <c r="R8" t="n">
-        <v>7207359.259216655</v>
+        <v>7207354.215751199</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84424637</v>
+        <v>84424623</v>
       </c>
       <c r="B9" t="n">
-        <v>73678</v>
+        <v>76863</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6439</v>
+        <v>498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>512777.944996929</v>
+        <v>512747.5111053474</v>
       </c>
       <c r="R9" t="n">
-        <v>7207349.716282581</v>
+        <v>7207331.385334576</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84424647</v>
+        <v>84424648</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>512706.7510746588</v>
+        <v>512717.0299179957</v>
       </c>
       <c r="R10" t="n">
-        <v>7207349.412119956</v>
+        <v>7207324.059550932</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84424594</v>
+        <v>84424601</v>
       </c>
       <c r="B11" t="n">
         <v>78570</v>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>512718.942619767</v>
+        <v>512713.0625710585</v>
       </c>
       <c r="R11" t="n">
-        <v>7207471.78695366</v>
+        <v>7207360.020776609</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84424618</v>
+        <v>84424628</v>
       </c>
       <c r="B12" t="n">
-        <v>73698</v>
+        <v>77588</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1467</v>
+        <v>864</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>512547.791487073</v>
+        <v>512732.9834620979</v>
       </c>
       <c r="R12" t="n">
-        <v>7207460.057342996</v>
+        <v>7207359.259216655</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>84424588</v>
+        <v>84424637</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>73678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6439</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>512732.5596901297</v>
+        <v>512777.944996929</v>
       </c>
       <c r="R13" t="n">
-        <v>7207359.257407522</v>
+        <v>7207349.716282581</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84424597</v>
+        <v>84424647</v>
       </c>
       <c r="B14" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>512767.6929006726</v>
+        <v>512706.7510746588</v>
       </c>
       <c r="R14" t="n">
-        <v>7207368.719521665</v>
+        <v>7207349.412119956</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>84424651</v>
+        <v>84424588</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>512681.3426690176</v>
+        <v>512732.5596901297</v>
       </c>
       <c r="R15" t="n">
-        <v>7207345.071264312</v>
+        <v>7207359.257407522</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>84424603</v>
+        <v>84424597</v>
       </c>
       <c r="B16" t="n">
         <v>78570</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>512657.1300728199</v>
+        <v>512767.6929006726</v>
       </c>
       <c r="R16" t="n">
-        <v>7207358.513079023</v>
+        <v>7207368.719521665</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>84424630</v>
+        <v>84424651</v>
       </c>
       <c r="B17" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>512683.4417393965</v>
+        <v>512681.3426690176</v>
       </c>
       <c r="R17" t="n">
-        <v>7207349.736175626</v>
+        <v>7207345.071264312</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>84424612</v>
+        <v>84424603</v>
       </c>
       <c r="B18" t="n">
-        <v>73698</v>
+        <v>78570</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1467</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>512733.8273918219</v>
+        <v>512657.1300728199</v>
       </c>
       <c r="R18" t="n">
-        <v>7207360.109359169</v>
+        <v>7207358.513079023</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>84424604</v>
+        <v>84424630</v>
       </c>
       <c r="B19" t="n">
-        <v>78570</v>
+        <v>77588</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2600,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>864</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>512755.5664683629</v>
+        <v>512683.4417393965</v>
       </c>
       <c r="R19" t="n">
-        <v>7207330.57322648</v>
+        <v>7207349.736175626</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>84424633</v>
+        <v>84424612</v>
       </c>
       <c r="B20" t="n">
-        <v>77588</v>
+        <v>73698</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2712,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>864</v>
+        <v>1467</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>512548.2277101443</v>
+        <v>512733.8273918219</v>
       </c>
       <c r="R20" t="n">
-        <v>7207457.096389809</v>
+        <v>7207360.109359169</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>84424654</v>
+        <v>84424604</v>
       </c>
       <c r="B21" t="n">
-        <v>81236</v>
+        <v>78570</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,21 +2824,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1312</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>512619.0228208281</v>
+        <v>512755.5664683629</v>
       </c>
       <c r="R21" t="n">
-        <v>7207350.73273876</v>
+        <v>7207330.57322648</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2902,7 +2902,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2921,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>84424589</v>
+        <v>84424654</v>
       </c>
       <c r="B22" t="n">
-        <v>56395</v>
+        <v>81236</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2937,42 +2936,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Hästbergen, Saxnäs, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>512680.5023192049</v>
+        <v>512619.0228208281</v>
       </c>
       <c r="R22" t="n">
-        <v>7207343.374603913</v>
+        <v>7207350.73273876</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3023,6 +3014,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3041,10 +3033,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>84424610</v>
+        <v>84424589</v>
       </c>
       <c r="B23" t="n">
-        <v>73698</v>
+        <v>56395</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3057,34 +3049,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Hästbergen, Saxnäs, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>512748.7770054662</v>
+        <v>512680.5023192049</v>
       </c>
       <c r="R23" t="n">
-        <v>7207332.660566377</v>
+        <v>7207343.374603913</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>84424596</v>
+        <v>84424610</v>
       </c>
       <c r="B24" t="n">
-        <v>78570</v>
+        <v>73698</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3169,21 +3169,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>1467</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>512761.2639009536</v>
+        <v>512748.7770054662</v>
       </c>
       <c r="R24" t="n">
-        <v>7207385.622699645</v>
+        <v>7207332.660566377</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3265,10 +3265,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>84424645</v>
+        <v>84424596</v>
       </c>
       <c r="B25" t="n">
-        <v>89410</v>
+        <v>78570</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3281,21 +3281,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>512746.0281419156</v>
+        <v>512761.2639009536</v>
       </c>
       <c r="R25" t="n">
-        <v>7207380.901618284</v>
+        <v>7207385.622699645</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,10 +3377,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>84424653</v>
+        <v>84424645</v>
       </c>
       <c r="B26" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3393,21 +3393,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>512689.8361571122</v>
+        <v>512746.0281419156</v>
       </c>
       <c r="R26" t="n">
-        <v>7207340.874668884</v>
+        <v>7207380.901618284</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3471,7 +3471,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3490,10 +3489,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>84424625</v>
+        <v>84424653</v>
       </c>
       <c r="B27" t="n">
-        <v>76863</v>
+        <v>81236</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3502,25 +3501,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>498</v>
+        <v>1312</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3530,10 +3529,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>512690.6747013612</v>
+        <v>512689.8361571122</v>
       </c>
       <c r="R27" t="n">
-        <v>7207342.99459778</v>
+        <v>7207340.874668884</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3584,6 +3583,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>84424621</v>
+        <v>84424625</v>
       </c>
       <c r="B28" t="n">
         <v>76863</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>512780.8987137353</v>
+        <v>512690.6747013612</v>
       </c>
       <c r="R28" t="n">
-        <v>7207352.691835601</v>
+        <v>7207342.99459778</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>84424581</v>
+        <v>84424621</v>
       </c>
       <c r="B29" t="n">
-        <v>73693</v>
+        <v>76863</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3726,25 +3726,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6440</v>
+        <v>498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>512576.4937962512</v>
+        <v>512780.8987137353</v>
       </c>
       <c r="R29" t="n">
-        <v>7207386.530907626</v>
+        <v>7207352.691835601</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>84424616</v>
+        <v>84424581</v>
       </c>
       <c r="B30" t="n">
-        <v>73698</v>
+        <v>73693</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3842,21 +3842,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1467</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>512756.4103998425</v>
+        <v>512576.4937962512</v>
       </c>
       <c r="R30" t="n">
-        <v>7207331.423383535</v>
+        <v>7207386.530907626</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84424599</v>
+        <v>84424616</v>
       </c>
       <c r="B31" t="n">
-        <v>78570</v>
+        <v>73698</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3954,21 +3954,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>1467</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>512746.9950715132</v>
+        <v>512756.4103998425</v>
       </c>
       <c r="R31" t="n">
-        <v>7207352.970013718</v>
+        <v>7207331.423383535</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>84424586</v>
+        <v>84424599</v>
       </c>
       <c r="B32" t="n">
-        <v>89356</v>
+        <v>78570</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,25 +4062,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5447</v>
+        <v>2081</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>512734.2511636691</v>
+        <v>512746.9950715132</v>
       </c>
       <c r="R32" t="n">
-        <v>7207360.111168482</v>
+        <v>7207352.970013718</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>84424608</v>
+        <v>84424586</v>
       </c>
       <c r="B33" t="n">
-        <v>73698</v>
+        <v>89356</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4174,25 +4174,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1467</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4202,10 +4202,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>512780.0221493135</v>
+        <v>512734.2511636691</v>
       </c>
       <c r="R33" t="n">
-        <v>7207359.460404631</v>
+        <v>7207360.111168482</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>84424643</v>
+        <v>84424608</v>
       </c>
       <c r="B34" t="n">
-        <v>89406</v>
+        <v>73698</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4290,21 +4290,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1204</v>
+        <v>1467</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>512546.943971829</v>
+        <v>512780.0221493135</v>
       </c>
       <c r="R34" t="n">
-        <v>7207460.05377739</v>
+        <v>7207359.460404631</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>

--- a/artfynd/A 66026-2019.xlsx
+++ b/artfynd/A 66026-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84424593</v>
+        <v>84424605</v>
       </c>
       <c r="B2" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>512645.2629130378</v>
+        <v>512641.8922189531</v>
       </c>
       <c r="R2" t="n">
-        <v>7207458.776002469</v>
+        <v>7207354.215751199</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84424584</v>
+        <v>84424623</v>
       </c>
       <c r="B3" t="n">
-        <v>89356</v>
+        <v>76863</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>512633.3779725762</v>
+        <v>512747.5111053474</v>
       </c>
       <c r="R3" t="n">
-        <v>7207463.38144253</v>
+        <v>7207331.385334576</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84424594</v>
+        <v>84424593</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>512718.942619767</v>
+        <v>512645.2629130378</v>
       </c>
       <c r="R4" t="n">
-        <v>7207471.78695366</v>
+        <v>7207458.776002469</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84424618</v>
+        <v>84424584</v>
       </c>
       <c r="B5" t="n">
-        <v>73698</v>
+        <v>89356</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1467</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>512547.791487073</v>
+        <v>512633.3779725762</v>
       </c>
       <c r="R5" t="n">
-        <v>7207460.057342996</v>
+        <v>7207463.38144253</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84424633</v>
+        <v>84424648</v>
       </c>
       <c r="B6" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>512548.2277101443</v>
+        <v>512717.0299179957</v>
       </c>
       <c r="R6" t="n">
-        <v>7207457.096389809</v>
+        <v>7207324.059550932</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84424643</v>
+        <v>84424601</v>
       </c>
       <c r="B7" t="n">
-        <v>89406</v>
+        <v>78570</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1204</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>512546.943971829</v>
+        <v>512713.0625710585</v>
       </c>
       <c r="R7" t="n">
-        <v>7207460.05377739</v>
+        <v>7207360.020776609</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84424605</v>
+        <v>84424628</v>
       </c>
       <c r="B8" t="n">
-        <v>78570</v>
+        <v>77588</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>512641.8922189531</v>
+        <v>512732.9834620979</v>
       </c>
       <c r="R8" t="n">
-        <v>7207354.215751199</v>
+        <v>7207359.259216655</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84424623</v>
+        <v>84424637</v>
       </c>
       <c r="B9" t="n">
-        <v>76863</v>
+        <v>73678</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>498</v>
+        <v>6439</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>512747.5111053474</v>
+        <v>512777.944996929</v>
       </c>
       <c r="R9" t="n">
-        <v>7207331.385334576</v>
+        <v>7207349.716282581</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84424648</v>
+        <v>84424647</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>512717.0299179957</v>
+        <v>512706.7510746588</v>
       </c>
       <c r="R10" t="n">
-        <v>7207324.059550932</v>
+        <v>7207349.412119956</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84424601</v>
+        <v>84424594</v>
       </c>
       <c r="B11" t="n">
         <v>78570</v>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>512713.0625710585</v>
+        <v>512718.942619767</v>
       </c>
       <c r="R11" t="n">
-        <v>7207360.020776609</v>
+        <v>7207471.78695366</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84424628</v>
+        <v>84424618</v>
       </c>
       <c r="B12" t="n">
-        <v>77588</v>
+        <v>73698</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>864</v>
+        <v>1467</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>512732.9834620979</v>
+        <v>512547.791487073</v>
       </c>
       <c r="R12" t="n">
-        <v>7207359.259216655</v>
+        <v>7207460.057342996</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>84424637</v>
+        <v>84424588</v>
       </c>
       <c r="B13" t="n">
-        <v>73678</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6439</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>512777.944996929</v>
+        <v>512732.5596901297</v>
       </c>
       <c r="R13" t="n">
-        <v>7207349.716282581</v>
+        <v>7207359.257407522</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84424647</v>
+        <v>84424597</v>
       </c>
       <c r="B14" t="n">
-        <v>89410</v>
+        <v>78570</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>512706.7510746588</v>
+        <v>512767.6929006726</v>
       </c>
       <c r="R14" t="n">
-        <v>7207349.412119956</v>
+        <v>7207368.719521665</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>84424588</v>
+        <v>84424651</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>512732.5596901297</v>
+        <v>512681.3426690176</v>
       </c>
       <c r="R15" t="n">
-        <v>7207359.257407522</v>
+        <v>7207345.071264312</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>84424597</v>
+        <v>84424603</v>
       </c>
       <c r="B16" t="n">
         <v>78570</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>512767.6929006726</v>
+        <v>512657.1300728199</v>
       </c>
       <c r="R16" t="n">
-        <v>7207368.719521665</v>
+        <v>7207358.513079023</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>84424651</v>
+        <v>84424630</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>512681.3426690176</v>
+        <v>512683.4417393965</v>
       </c>
       <c r="R17" t="n">
-        <v>7207345.071264312</v>
+        <v>7207349.736175626</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>84424603</v>
+        <v>84424612</v>
       </c>
       <c r="B18" t="n">
-        <v>78570</v>
+        <v>73698</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>1467</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>512657.1300728199</v>
+        <v>512733.8273918219</v>
       </c>
       <c r="R18" t="n">
-        <v>7207358.513079023</v>
+        <v>7207360.109359169</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>84424630</v>
+        <v>84424604</v>
       </c>
       <c r="B19" t="n">
-        <v>77588</v>
+        <v>78570</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2600,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>864</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>512683.4417393965</v>
+        <v>512755.5664683629</v>
       </c>
       <c r="R19" t="n">
-        <v>7207349.736175626</v>
+        <v>7207330.57322648</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>84424612</v>
+        <v>84424633</v>
       </c>
       <c r="B20" t="n">
-        <v>73698</v>
+        <v>77588</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,21 +2712,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1467</v>
+        <v>864</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>512733.8273918219</v>
+        <v>512548.2277101443</v>
       </c>
       <c r="R20" t="n">
-        <v>7207360.109359169</v>
+        <v>7207457.096389809</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>84424604</v>
+        <v>84424654</v>
       </c>
       <c r="B21" t="n">
-        <v>78570</v>
+        <v>81236</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,21 +2824,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>512755.5664683629</v>
+        <v>512619.0228208281</v>
       </c>
       <c r="R21" t="n">
-        <v>7207330.57322648</v>
+        <v>7207350.73273876</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2902,6 +2902,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2920,10 +2921,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>84424654</v>
+        <v>84424589</v>
       </c>
       <c r="B22" t="n">
-        <v>81236</v>
+        <v>56395</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,34 +2937,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Hästbergen, Saxnäs, Ås lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>512619.0228208281</v>
+        <v>512680.5023192049</v>
       </c>
       <c r="R22" t="n">
-        <v>7207350.73273876</v>
+        <v>7207343.374603913</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3014,7 +3023,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3033,10 +3041,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>84424589</v>
+        <v>84424610</v>
       </c>
       <c r="B23" t="n">
-        <v>56395</v>
+        <v>73698</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3049,42 +3057,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Hästbergen, Saxnäs, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>512680.5023192049</v>
+        <v>512748.7770054662</v>
       </c>
       <c r="R23" t="n">
-        <v>7207343.374603913</v>
+        <v>7207332.660566377</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>84424610</v>
+        <v>84424596</v>
       </c>
       <c r="B24" t="n">
-        <v>73698</v>
+        <v>78570</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3169,21 +3169,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1467</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>512748.7770054662</v>
+        <v>512761.2639009536</v>
       </c>
       <c r="R24" t="n">
-        <v>7207332.660566377</v>
+        <v>7207385.622699645</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3265,10 +3265,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>84424596</v>
+        <v>84424645</v>
       </c>
       <c r="B25" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3281,21 +3281,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>512761.2639009536</v>
+        <v>512746.0281419156</v>
       </c>
       <c r="R25" t="n">
-        <v>7207385.622699645</v>
+        <v>7207380.901618284</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,10 +3377,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>84424645</v>
+        <v>84424653</v>
       </c>
       <c r="B26" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3393,21 +3393,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>512746.0281419156</v>
+        <v>512689.8361571122</v>
       </c>
       <c r="R26" t="n">
-        <v>7207380.901618284</v>
+        <v>7207340.874668884</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3471,6 +3471,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3489,10 +3490,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>84424653</v>
+        <v>84424625</v>
       </c>
       <c r="B27" t="n">
-        <v>81236</v>
+        <v>76863</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3501,25 +3502,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3529,10 +3530,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>512689.8361571122</v>
+        <v>512690.6747013612</v>
       </c>
       <c r="R27" t="n">
-        <v>7207340.874668884</v>
+        <v>7207342.99459778</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3583,7 +3584,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>84424625</v>
+        <v>84424621</v>
       </c>
       <c r="B28" t="n">
         <v>76863</v>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>512690.6747013612</v>
+        <v>512780.8987137353</v>
       </c>
       <c r="R28" t="n">
-        <v>7207342.99459778</v>
+        <v>7207352.691835601</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>84424621</v>
+        <v>84424581</v>
       </c>
       <c r="B29" t="n">
-        <v>76863</v>
+        <v>73693</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3726,25 +3726,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>498</v>
+        <v>6440</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>512780.8987137353</v>
+        <v>512576.4937962512</v>
       </c>
       <c r="R29" t="n">
-        <v>7207352.691835601</v>
+        <v>7207386.530907626</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>84424581</v>
+        <v>84424616</v>
       </c>
       <c r="B30" t="n">
-        <v>73693</v>
+        <v>73698</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3842,21 +3842,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>1467</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>512576.4937962512</v>
+        <v>512756.4103998425</v>
       </c>
       <c r="R30" t="n">
-        <v>7207386.530907626</v>
+        <v>7207331.423383535</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84424616</v>
+        <v>84424599</v>
       </c>
       <c r="B31" t="n">
-        <v>73698</v>
+        <v>78570</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3954,21 +3954,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1467</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>512756.4103998425</v>
+        <v>512746.9950715132</v>
       </c>
       <c r="R31" t="n">
-        <v>7207331.423383535</v>
+        <v>7207352.970013718</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>84424599</v>
+        <v>84424586</v>
       </c>
       <c r="B32" t="n">
-        <v>78570</v>
+        <v>89356</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,25 +4062,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2081</v>
+        <v>5447</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>512746.9950715132</v>
+        <v>512734.2511636691</v>
       </c>
       <c r="R32" t="n">
-        <v>7207352.970013718</v>
+        <v>7207360.111168482</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>84424586</v>
+        <v>84424608</v>
       </c>
       <c r="B33" t="n">
-        <v>89356</v>
+        <v>73698</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4174,25 +4174,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>1467</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4202,10 +4202,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>512734.2511636691</v>
+        <v>512780.0221493135</v>
       </c>
       <c r="R33" t="n">
-        <v>7207360.111168482</v>
+        <v>7207359.460404631</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>84424608</v>
+        <v>84424643</v>
       </c>
       <c r="B34" t="n">
-        <v>73698</v>
+        <v>89406</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4290,21 +4290,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1467</v>
+        <v>1204</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>512780.0221493135</v>
+        <v>512546.943971829</v>
       </c>
       <c r="R34" t="n">
-        <v>7207359.460404631</v>
+        <v>7207460.05377739</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
